--- a/biology/Zoologie/Calonastes_imparipes/Calonastes_imparipes.xlsx
+++ b/biology/Zoologie/Calonastes_imparipes/Calonastes_imparipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calonastes imparipes, unique représentant du genre Calonastes, est une espèce de copépodes de la famille des Rhynchomolgidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calonastes imparipes, unique représentant du genre Calonastes, est une espèce de copépodes de la famille des Rhynchomolgidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Porto Rico. Elle se rencontre dans la mer des Caraïbes[2].
-Ce copépode est associée au scléractiniaire Psammocora contigua[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Porto Rico. Elle se rencontre dans la mer des Caraïbes.
+Ce copépode est associée au scléractiniaire Psammocora contigua.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Humes &amp; Goenaga, 1978 : Calonastes imparipes, new genus, new species (Copepoda, Cyclopoida), associated with the antipatharian coral genus Stichopathes in Puerto Rico. Bulletin of Marine Science 28(1):189-197.</t>
         </is>
